--- a/tests/golden_input/golden_input.xlsx
+++ b/tests/golden_input/golden_input.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://intel-my.sharepoint.com/personal/cheng_lun_tsai_intel_com/Documents/Desktop/Project/00_Coding/01_CI_demo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://intel-my.sharepoint.com/personal/cheng_lun_tsai_intel_com/Documents/Desktop/Project/00_Coding/01_CI_demo/tests/golden_input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8442C6EF-E294-4BD4-8A00-0B51739DADF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{8442C6EF-E294-4BD4-8A00-0B51739DADF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33E894C6-EF5C-4AB0-8520-EE5527F9AB71}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{9AE0899F-6EF6-4253-BBE3-AAA2AA16F659}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -77,6 +77,12 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -119,7 +125,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -459,15 +465,15 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -478,7 +484,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -489,7 +495,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -500,7 +506,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -513,5 +519,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>